--- a/spec/models/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/CnvSet_Trq2QInspectReport.xlsx
+++ b/spec/models/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/CnvSet_Trq2QInspectReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T3\spec\model\swCore\ASW\Eng\ETS\TrqCnv\CnvSet\CnvSet_Trq2Q\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T3NSE\trunk\spec\model\swCore\ASW\Eng\ETS\TrqCnv\CnvSet\CnvSet_Trq2Q\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6304014E-34AA-4DE6-AB7A-51BB44CD3562}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63797233-B7E9-49B1-88D4-4EA3F3249669}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
